--- a/autotest.xlsx
+++ b/autotest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\보고서앱\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{70ED036E-3C08-44E1-A11C-94EDB3F8DD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{4A32C805-9923-40AA-92B5-62696E0F8419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F75F05A7-C736-4045-98C7-02878C86567D}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="7" activeTab="8" xr2:uid="{F75F05A7-C736-4045-98C7-02878C86567D}"/>
   </bookViews>
   <sheets>
     <sheet name="서비스 이용 인원" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,14 @@
     <sheet name="성별 이용 횟수" sheetId="10" r:id="rId6"/>
     <sheet name="연령별 이용 인원" sheetId="8" r:id="rId7"/>
     <sheet name="연령별 이용 횟수" sheetId="11" r:id="rId8"/>
+    <sheet name="심리진단 이용 횟수" sheetId="12" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="31">
-  <si>
-    <t>연월</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="31">
   <si>
     <t>심리상담</t>
   </si>
@@ -45,6 +43,10 @@
   </si>
   <si>
     <t>실계</t>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>8월</t>
@@ -79,9 +81,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>상담연월</t>
-  </si>
-  <si>
     <t>대면상담</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -136,6 +135,10 @@
   </si>
   <si>
     <t>50대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAT</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1116,24 +1119,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15C0E64F-3BDD-460F-B6D1-781E155C12C5}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1149,40 +1152,34 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
       <c r="D3" s="2">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>8</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1237,26 +1234,30 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
       <c r="D14" s="2">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>13</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
       <c r="D15" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1270,23 +1271,23 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="B14" sqref="B14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1302,40 +1303,34 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
       <c r="D3" s="2">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>18</v>
-      </c>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2">
-        <v>17</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1393,14 +1388,16 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>49</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
       <c r="D14" s="2">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1414,29 +1411,29 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1449,37 +1446,35 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
+        <v>23</v>
+      </c>
+      <c r="C3" s="2">
         <v>8</v>
       </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
       <c r="F3" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1519,24 +1514,36 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
       </c>
       <c r="F14" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
       </c>
       <c r="F15" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1550,29 +1557,29 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
-        <v>19</v>
-      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1587,37 +1594,35 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>14</v>
+        <v>44</v>
+      </c>
+      <c r="C3" s="2">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2">
+        <v>6</v>
       </c>
       <c r="F3" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1657,13 +1662,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
       </c>
       <c r="F14" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1677,23 +1688,23 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1708,46 +1719,34 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1787,30 +1786,30 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D14" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1824,23 +1823,23 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
-        <v>25</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1855,46 +1854,34 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1934,16 +1921,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
@@ -1960,29 +1947,29 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1997,64 +1984,44 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E3" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>5</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>8</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -2094,42 +2061,42 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F14" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F15" s="2">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2143,29 +2110,29 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H21" activeCellId="1" sqref="F14 H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -2180,64 +2147,44 @@
         <v>14</v>
       </c>
       <c r="B3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>18</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -2277,23 +2224,148 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="2">
-        <v>29</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
+      <c r="F14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8841A45-3C4D-4659-8202-CA899F72E992}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2">
-        <v>49</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
